--- a/data/ml_perform_crossval_raw_2022-11-13.xlsx
+++ b/data/ml_perform_crossval_raw_2022-11-13.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00C1F03-F7E4-4A64-8C7A-2835432DC66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23124" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +149,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +480,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,33 +539,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8577380180358887</v>
+        <v>0.85773801803588867</v>
       </c>
       <c r="C2">
-        <v>0.03793787956237793</v>
+        <v>3.793787956237793E-2</v>
       </c>
       <c r="D2">
-        <v>0.07583838609050947</v>
+        <v>7.5838386090509469E-2</v>
       </c>
       <c r="E2">
-        <v>-0.03362656967133958</v>
+        <v>-3.3626569671339583E-2</v>
       </c>
       <c r="F2">
-        <v>0.009294258463847793</v>
+        <v>9.2942584638477932E-3</v>
       </c>
       <c r="G2">
-        <v>-0.002027868948364863</v>
+        <v>-2.0278689483648631E-3</v>
       </c>
       <c r="H2">
-        <v>0.1196525714051015</v>
+        <v>0.11965257140510149</v>
       </c>
       <c r="I2">
-        <v>0.794540183149159</v>
+        <v>0.79454018314915897</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -519,30 +580,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7441065311431885</v>
+        <v>0.74410653114318848</v>
       </c>
       <c r="C3">
-        <v>0.03147792816162109</v>
+        <v>3.1477928161621087E-2</v>
       </c>
       <c r="D3">
-        <v>0.07814050751128576</v>
+        <v>7.8140507511285762E-2</v>
       </c>
       <c r="E3">
-        <v>-0.03363141700550268</v>
+        <v>-3.3631417005502678E-2</v>
       </c>
       <c r="F3">
-        <v>0.009552963263527834</v>
+        <v>9.5529632635278344E-3</v>
       </c>
       <c r="G3">
-        <v>-0.002032630944331914</v>
+        <v>-2.032630944331914E-3</v>
       </c>
       <c r="H3">
-        <v>0.08311325738663344</v>
+        <v>8.3113257386633443E-2</v>
       </c>
       <c r="I3">
         <v>0.791316249112342</v>
@@ -560,33 +621,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7599985599517822</v>
+        <v>0.75999855995178223</v>
       </c>
       <c r="C4">
-        <v>0.02692723274230957</v>
+        <v>2.692723274230957E-2</v>
       </c>
       <c r="D4">
-        <v>0.07216012071966166</v>
+        <v>7.2160120719661658E-2</v>
       </c>
       <c r="E4">
-        <v>-0.03339058723745039</v>
+        <v>-3.3390587237450392E-2</v>
       </c>
       <c r="F4">
-        <v>0.00869972909497822</v>
+        <v>8.6997290949782195E-3</v>
       </c>
       <c r="G4">
-        <v>-0.002012538508268835</v>
+        <v>-2.0125385082688349E-3</v>
       </c>
       <c r="H4">
         <v>0.125055348683105</v>
       </c>
       <c r="I4">
-        <v>0.8001326110302603</v>
+        <v>0.80013261103026034</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -601,33 +662,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7740671634674072</v>
+        <v>0.77406716346740723</v>
       </c>
       <c r="C5">
-        <v>0.03091716766357422</v>
+        <v>3.0917167663574219E-2</v>
       </c>
       <c r="D5">
-        <v>0.07140035891951753</v>
+        <v>7.1400358919517529E-2</v>
       </c>
       <c r="E5">
-        <v>-0.03350653283101158</v>
+        <v>-3.3506532831011578E-2</v>
       </c>
       <c r="F5">
-        <v>0.008543408416891897</v>
+        <v>8.5434084168918966E-3</v>
       </c>
       <c r="G5">
-        <v>-0.002028518281160587</v>
+        <v>-2.028518281160587E-3</v>
       </c>
       <c r="H5">
-        <v>0.05328856815014005</v>
+        <v>5.3288568150140048E-2</v>
       </c>
       <c r="I5">
-        <v>0.8015236355100807</v>
+        <v>0.80152363551008066</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -642,33 +703,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8168714046478271</v>
+        <v>0.81687140464782715</v>
       </c>
       <c r="C6">
-        <v>0.03692817687988281</v>
+        <v>3.6928176879882813E-2</v>
       </c>
       <c r="D6">
-        <v>0.07139053823698388</v>
+        <v>7.139053823698388E-2</v>
       </c>
       <c r="E6">
-        <v>-0.03367844383510669</v>
+        <v>-3.3678443835106688E-2</v>
       </c>
       <c r="F6">
-        <v>0.008763336567732715</v>
+        <v>8.763336567732715E-3</v>
       </c>
       <c r="G6">
-        <v>-0.002035168756181004</v>
+        <v>-2.0351687561810041E-3</v>
       </c>
       <c r="H6">
-        <v>0.005972019685580032</v>
+        <v>5.9720196855800323E-3</v>
       </c>
       <c r="I6">
-        <v>0.8015507587797563</v>
+        <v>0.80155075877975634</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -683,33 +744,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.2747519016265869</v>
+        <v>0.27475190162658691</v>
       </c>
       <c r="C7">
-        <v>0.004987478256225586</v>
+        <v>4.9874782562255859E-3</v>
       </c>
       <c r="D7">
-        <v>0.07542877215684819</v>
+        <v>7.5428772156848192E-2</v>
       </c>
       <c r="E7">
-        <v>-0.04617877028756261</v>
+        <v>-4.6178770287562607E-2</v>
       </c>
       <c r="F7">
-        <v>0.009159373099059844</v>
+        <v>9.1593730990598438E-3</v>
       </c>
       <c r="G7">
-        <v>-0.003649686079848346</v>
+        <v>-3.6496860798483459E-3</v>
       </c>
       <c r="H7">
-        <v>0.1324288444674493</v>
+        <v>0.13242884446744929</v>
       </c>
       <c r="I7">
-        <v>0.6302207624741507</v>
+        <v>0.63022076247415071</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -724,33 +785,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.2179276943206787</v>
+        <v>0.21792769432067871</v>
       </c>
       <c r="C8">
-        <v>0.004985570907592773</v>
+        <v>4.9855709075927726E-3</v>
       </c>
       <c r="D8">
-        <v>0.07881252395574258</v>
+        <v>7.8812523955742578E-2</v>
       </c>
       <c r="E8">
-        <v>-0.04657098514052156</v>
+        <v>-4.6570985140521562E-2</v>
       </c>
       <c r="F8">
-        <v>0.009471843549025742</v>
+        <v>9.4718435490257422E-3</v>
       </c>
       <c r="G8">
-        <v>-0.003708782875131897</v>
+        <v>-3.7087828751318969E-3</v>
       </c>
       <c r="H8">
-        <v>0.09089907093367322</v>
+        <v>9.0899070933673221E-2</v>
       </c>
       <c r="I8">
-        <v>0.6192310641689935</v>
+        <v>0.61923106416899354</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -765,33 +826,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.2224051952362061</v>
+        <v>0.22240519523620611</v>
       </c>
       <c r="C9">
-        <v>0.004986763000488281</v>
+        <v>4.9867630004882813E-3</v>
       </c>
       <c r="D9">
-        <v>0.07163597686201599</v>
+        <v>7.163597686201599E-2</v>
       </c>
       <c r="E9">
-        <v>-0.04576052483288653</v>
+        <v>-4.5760524832886527E-2</v>
       </c>
       <c r="F9">
-        <v>0.008583547610103302</v>
+        <v>8.5835476101033016E-3</v>
       </c>
       <c r="G9">
-        <v>-0.003586188976618468</v>
+        <v>-3.5861889766184681E-3</v>
       </c>
       <c r="H9">
-        <v>0.1367398928411571</v>
+        <v>0.13673989284115709</v>
       </c>
       <c r="I9">
-        <v>0.6438516708307125</v>
+        <v>0.64385167083071249</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -806,33 +867,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.209439754486084</v>
+        <v>0.20943975448608401</v>
       </c>
       <c r="C10">
-        <v>0.005984783172607422</v>
+        <v>5.9847831726074219E-3</v>
       </c>
       <c r="D10">
-        <v>0.0707196959028942</v>
+        <v>7.0719695902894203E-2</v>
       </c>
       <c r="E10">
-        <v>-0.04614923179715264</v>
+        <v>-4.6149231797152641E-2</v>
       </c>
       <c r="F10">
-        <v>0.008274176845577016</v>
+        <v>8.2741768455770158E-3</v>
       </c>
       <c r="G10">
-        <v>-0.003717258906282613</v>
+        <v>-3.717258906282613E-3</v>
       </c>
       <c r="H10">
-        <v>0.08312263365902339</v>
+        <v>8.3122633659023393E-2</v>
       </c>
       <c r="I10">
-        <v>0.6362921446462726</v>
+        <v>0.63629214464627259</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -847,7 +908,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -855,25 +916,25 @@
         <v>0.2154242992401123</v>
       </c>
       <c r="C11">
-        <v>0.004987001419067383</v>
+        <v>4.9870014190673828E-3</v>
       </c>
       <c r="D11">
-        <v>0.07020590941327966</v>
+        <v>7.0205909413279657E-2</v>
       </c>
       <c r="E11">
-        <v>-0.0456626252804242</v>
+        <v>-4.5662625280424203E-2</v>
       </c>
       <c r="F11">
-        <v>0.008610939154528759</v>
+        <v>8.6109391545287593E-3</v>
       </c>
       <c r="G11">
-        <v>-0.003661487685562355</v>
+        <v>-3.6614876855623549E-3</v>
       </c>
       <c r="H11">
-        <v>0.02325850545289121</v>
+        <v>2.3258505452891209E-2</v>
       </c>
       <c r="I11">
-        <v>0.6429684512744697</v>
+        <v>0.64296845127446967</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -888,33 +949,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.6732034683227539</v>
+        <v>0.67320346832275391</v>
       </c>
       <c r="C12">
-        <v>0.04096007347106934</v>
+        <v>4.0960073471069343E-2</v>
       </c>
       <c r="D12">
-        <v>0.08239927566382885</v>
+        <v>8.2399275663828847E-2</v>
       </c>
       <c r="E12">
-        <v>-0.0768583966774907</v>
+        <v>-7.6858396677490698E-2</v>
       </c>
       <c r="F12">
-        <v>0.01029937267798116</v>
+        <v>1.029937267798116E-2</v>
       </c>
       <c r="G12">
-        <v>-0.009124571311338706</v>
+        <v>-9.1245713113387063E-3</v>
       </c>
       <c r="H12">
-        <v>0.02444866489676423</v>
+        <v>2.4448664896764231E-2</v>
       </c>
       <c r="I12">
-        <v>0.07551582562485282</v>
+        <v>7.5515825624852817E-2</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -929,33 +990,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.5525281429290771</v>
+        <v>0.55252814292907715</v>
       </c>
       <c r="C13">
-        <v>0.06794285774230957</v>
+        <v>6.794285774230957E-2</v>
       </c>
       <c r="D13">
-        <v>0.08577165099751573</v>
+        <v>8.5771650997515728E-2</v>
       </c>
       <c r="E13">
-        <v>-0.07660639180788367</v>
+        <v>-7.6606391807883673E-2</v>
       </c>
       <c r="F13">
-        <v>0.01078530301041421</v>
+        <v>1.0785303010414211E-2</v>
       </c>
       <c r="G13">
-        <v>-0.009101677753040143</v>
+        <v>-9.1016777530401431E-3</v>
       </c>
       <c r="H13">
-        <v>-0.03516585090110858</v>
+        <v>-3.5165850901108582E-2</v>
       </c>
       <c r="I13">
-        <v>0.06555970813508671</v>
+        <v>6.5559708135086714E-2</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -970,33 +1031,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1.718713998794556</v>
+        <v>1.7187139987945561</v>
       </c>
       <c r="C14">
-        <v>0.1940031051635742</v>
+        <v>0.19400310516357419</v>
       </c>
       <c r="D14">
-        <v>0.07754768972749286</v>
+        <v>7.7547689727492861E-2</v>
       </c>
       <c r="E14">
-        <v>-0.07771482237697004</v>
+        <v>-7.7714822376970041E-2</v>
       </c>
       <c r="F14">
-        <v>0.009259569694598801</v>
+        <v>9.2595696945988008E-3</v>
       </c>
       <c r="G14">
-        <v>-0.009361947040353666</v>
+        <v>-9.3619470403536655E-3</v>
       </c>
       <c r="H14">
-        <v>0.06875134968722618</v>
+        <v>6.8751349687226182E-2</v>
       </c>
       <c r="I14">
-        <v>0.07025485329072734</v>
+        <v>7.0254853290727337E-2</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -1011,33 +1072,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>2.954782962799072</v>
+        <v>2.9547829627990718</v>
       </c>
       <c r="C15">
         <v>0.1156811714172363</v>
       </c>
       <c r="D15">
-        <v>0.07477674236238338</v>
+        <v>7.477674236238338E-2</v>
       </c>
       <c r="E15">
-        <v>-0.07760445203110207</v>
+        <v>-7.760445203110207E-2</v>
       </c>
       <c r="F15">
-        <v>0.008878298676103409</v>
+        <v>8.8782986761034091E-3</v>
       </c>
       <c r="G15">
-        <v>-0.009405193591835647</v>
+        <v>-9.4051935918356474E-3</v>
       </c>
       <c r="H15">
-        <v>0.01617873781780488</v>
+        <v>1.6178737817804881E-2</v>
       </c>
       <c r="I15">
-        <v>0.0797674101495327</v>
+        <v>7.9767410149532703E-2</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -1052,7 +1113,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1060,25 +1121,25 @@
         <v>1.190595388412476</v>
       </c>
       <c r="C16">
-        <v>0.05287456512451172</v>
+        <v>5.2874565124511719E-2</v>
       </c>
       <c r="D16">
-        <v>0.07211858060460301</v>
+        <v>7.2118580604603008E-2</v>
       </c>
       <c r="E16">
-        <v>-0.07819128626262017</v>
+        <v>-7.8191286262620174E-2</v>
       </c>
       <c r="F16">
-        <v>0.00880372100084997</v>
+        <v>8.8037210008499699E-3</v>
       </c>
       <c r="G16">
-        <v>-0.009424583913487687</v>
+        <v>-9.4245839134876868E-3</v>
       </c>
       <c r="H16">
-        <v>0.001391200932652215</v>
+        <v>1.391200932652215E-3</v>
       </c>
       <c r="I16">
-        <v>0.08100911987379</v>
+        <v>8.1009119873790003E-2</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1093,7 +1154,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1104,22 +1165,22 @@
         <v>0.1371049880981445</v>
       </c>
       <c r="D17">
-        <v>0.0781172776727278</v>
+        <v>7.8117277672727803E-2</v>
       </c>
       <c r="E17">
-        <v>-0.02811799799216391</v>
+        <v>-2.8117997992163909E-2</v>
       </c>
       <c r="F17">
-        <v>0.009414270576343701</v>
+        <v>9.4142705763437008E-3</v>
       </c>
       <c r="G17">
-        <v>-0.001351731358880277</v>
+        <v>-1.351731358880277E-3</v>
       </c>
       <c r="H17">
         <v>0.1082850852256529</v>
       </c>
       <c r="I17">
-        <v>0.8630451550377454</v>
+        <v>0.86304515503774537</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1134,33 +1195,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>6.473274230957031</v>
+        <v>6.4732742309570313</v>
       </c>
       <c r="C18">
-        <v>0.0723259449005127</v>
+        <v>7.2325944900512695E-2</v>
       </c>
       <c r="D18">
-        <v>0.07938283765654176</v>
+        <v>7.9382837656541763E-2</v>
       </c>
       <c r="E18">
-        <v>-0.02783518669073047</v>
+        <v>-2.7835186690730471E-2</v>
       </c>
       <c r="F18">
-        <v>0.009410205427306853</v>
+        <v>9.4102054273068527E-3</v>
       </c>
       <c r="G18">
-        <v>-0.001306650521894645</v>
+        <v>-1.306650521894645E-3</v>
       </c>
       <c r="H18">
-        <v>0.09681505481057229</v>
+        <v>9.6815054810572287E-2</v>
       </c>
       <c r="I18">
-        <v>0.8658503488945388</v>
+        <v>0.86585034889453882</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1175,33 +1236,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>6.103029012680054</v>
+        <v>6.1030290126800537</v>
       </c>
       <c r="C19">
         <v>0.1964764595031738</v>
       </c>
       <c r="D19">
-        <v>0.07384133010266797</v>
+        <v>7.3841330102667968E-2</v>
       </c>
       <c r="E19">
-        <v>-0.02789760808417562</v>
+        <v>-2.7897608084175619E-2</v>
       </c>
       <c r="F19">
-        <v>0.008836469753084388</v>
+        <v>8.8364697530843878E-3</v>
       </c>
       <c r="G19">
-        <v>-0.001311892503425205</v>
+        <v>-1.311892503425205E-3</v>
       </c>
       <c r="H19">
-        <v>0.111303137996843</v>
+        <v>0.11130313799684299</v>
       </c>
       <c r="I19">
-        <v>0.8697145280990839</v>
+        <v>0.86971452809908389</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1216,33 +1277,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>5.326922178268433</v>
+        <v>5.3269221782684326</v>
       </c>
       <c r="C20">
-        <v>0.04886674880981445</v>
+        <v>4.8866748809814453E-2</v>
       </c>
       <c r="D20">
-        <v>0.07313103671682135</v>
+        <v>7.3131036716821349E-2</v>
       </c>
       <c r="E20">
-        <v>-0.02796378213654838</v>
+        <v>-2.796378213654838E-2</v>
       </c>
       <c r="F20">
-        <v>0.008711411077699399</v>
+        <v>8.7114110776993995E-3</v>
       </c>
       <c r="G20">
-        <v>-0.001302842231682322</v>
+        <v>-1.302842231682322E-3</v>
       </c>
       <c r="H20">
-        <v>0.03467187188484311</v>
+        <v>3.4671871884843108E-2</v>
       </c>
       <c r="I20">
-        <v>0.8725259752156161</v>
+        <v>0.87252597521561615</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1257,33 +1318,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
-        <v>6.341740131378174</v>
+        <v>6.3417401313781738</v>
       </c>
       <c r="C21">
-        <v>0.03688287734985352</v>
+        <v>3.6882877349853523E-2</v>
       </c>
       <c r="D21">
-        <v>0.07171904817756329</v>
+        <v>7.1719048177563291E-2</v>
       </c>
       <c r="E21">
-        <v>-0.02833481994379254</v>
+        <v>-2.8334819943792541E-2</v>
       </c>
       <c r="F21">
-        <v>0.008825150543321239</v>
+        <v>8.825150543321239E-3</v>
       </c>
       <c r="G21">
-        <v>-0.001330317957019043</v>
+        <v>-1.3303179570190429E-3</v>
       </c>
       <c r="H21">
-        <v>-0.001039558705202115</v>
+        <v>-1.0395587052021149E-3</v>
       </c>
       <c r="I21">
-        <v>0.8702807379730558</v>
+        <v>0.87028073797305583</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1298,33 +1359,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0.3645341396331787</v>
+        <v>0.36453413963317871</v>
       </c>
       <c r="C22">
-        <v>0.005983352661132812</v>
+        <v>5.9833526611328116E-3</v>
       </c>
       <c r="D22">
-        <v>0.08406358764297704</v>
+        <v>8.4063587642977042E-2</v>
       </c>
       <c r="E22">
-        <v>-0.03768335679461209</v>
+        <v>-3.7683356794612093E-2</v>
       </c>
       <c r="F22">
-        <v>0.01124406173073128</v>
+        <v>1.1244061730731281E-2</v>
       </c>
       <c r="G22">
-        <v>-0.00268214867893455</v>
+        <v>-2.6821486789345502E-3</v>
       </c>
       <c r="H22">
-        <v>-0.06503180109686357</v>
+        <v>-6.5031801096863573E-2</v>
       </c>
       <c r="I22">
-        <v>0.7282498078660524</v>
+        <v>0.72824980786605242</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1339,7 +1400,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1347,25 +1408,25 @@
         <v>0.42486572265625</v>
       </c>
       <c r="C23">
-        <v>0.005983114242553711</v>
+        <v>5.9831142425537109E-3</v>
       </c>
       <c r="D23">
-        <v>0.08102195710166411</v>
+        <v>8.1021957101664113E-2</v>
       </c>
       <c r="E23">
-        <v>-0.03628368150702886</v>
+        <v>-3.6283681507028862E-2</v>
       </c>
       <c r="F23">
-        <v>0.009976896317661859</v>
+        <v>9.9768963176618593E-3</v>
       </c>
       <c r="G23">
-        <v>-0.002496292591411407</v>
+        <v>-2.496292591411407E-3</v>
       </c>
       <c r="H23">
-        <v>0.04242445890929702</v>
+        <v>4.2424458909297018E-2</v>
       </c>
       <c r="I23">
-        <v>0.7437135832545215</v>
+        <v>0.74371358325452153</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1380,33 +1441,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.4118988513946533</v>
+        <v>0.41189885139465332</v>
       </c>
       <c r="C24">
-        <v>0.004987478256225586</v>
+        <v>4.9874782562255859E-3</v>
       </c>
       <c r="D24">
-        <v>0.07678925341985991</v>
+        <v>7.6789253419859912E-2</v>
       </c>
       <c r="E24">
-        <v>-0.03793351047703309</v>
+        <v>-3.793351047703309E-2</v>
       </c>
       <c r="F24">
-        <v>0.0096214087366069</v>
+        <v>9.6214087366069002E-3</v>
       </c>
       <c r="G24">
-        <v>-0.002717157122879373</v>
+        <v>-2.7171571228793729E-3</v>
       </c>
       <c r="H24">
-        <v>0.03236066085240241</v>
+        <v>3.2360660852402412E-2</v>
       </c>
       <c r="I24">
-        <v>0.7301561697631442</v>
+        <v>0.73015616976314424</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1421,33 +1482,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0.4029226303100586</v>
+        <v>0.40292263031005859</v>
       </c>
       <c r="C25">
-        <v>0.00598597526550293</v>
+        <v>5.9859752655029297E-3</v>
       </c>
       <c r="D25">
-        <v>0.07573164167180185</v>
+        <v>7.5731641671801853E-2</v>
       </c>
       <c r="E25">
-        <v>-0.03548927039911165</v>
+        <v>-3.548927039911165E-2</v>
       </c>
       <c r="F25">
-        <v>0.009418880657579601</v>
+        <v>9.4188806575796011E-3</v>
       </c>
       <c r="G25">
-        <v>-0.002421607008114024</v>
+        <v>-2.4216070081140239E-3</v>
       </c>
       <c r="H25">
-        <v>-0.04372418578627868</v>
+        <v>-4.372418578627868E-2</v>
       </c>
       <c r="I25">
-        <v>0.7630626454503553</v>
+        <v>0.76306264545035529</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1462,33 +1523,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.3819787502288818</v>
+        <v>0.38197875022888178</v>
       </c>
       <c r="C26">
-        <v>0.005985021591186523</v>
+        <v>5.9850215911865226E-3</v>
       </c>
       <c r="D26">
-        <v>0.07661299060068025</v>
+        <v>7.6612990600680247E-2</v>
       </c>
       <c r="E26">
-        <v>-0.03666442223524798</v>
+        <v>-3.6664422235247983E-2</v>
       </c>
       <c r="F26">
-        <v>0.01009240550941611</v>
+        <v>1.009240550941611E-2</v>
       </c>
       <c r="G26">
-        <v>-0.002594211417379973</v>
+        <v>-2.5942114173799729E-3</v>
       </c>
       <c r="H26">
         <v>-0.1447846818959477</v>
       </c>
       <c r="I26">
-        <v>0.7470385265200283</v>
+        <v>0.74703852652002833</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1503,12 +1564,12 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>3.151407957077026</v>
+        <v>3.1514079570770259</v>
       </c>
       <c r="C27">
         <v>0.1142926216125488</v>
@@ -1517,19 +1578,19 @@
         <v>0.1011817638941621</v>
       </c>
       <c r="E27">
-        <v>-0.07414090278302242</v>
+        <v>-7.4140902783022419E-2</v>
       </c>
       <c r="F27">
-        <v>0.0203455791109431</v>
+        <v>2.0345579110943101E-2</v>
       </c>
       <c r="G27">
-        <v>-0.008229735155968925</v>
+        <v>-8.2297351559689255E-3</v>
       </c>
       <c r="H27">
-        <v>-0.9271228924031525</v>
+        <v>-0.92712289240315249</v>
       </c>
       <c r="I27">
-        <v>0.1661789193824806</v>
+        <v>0.16617891938248061</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -1544,30 +1605,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>4.861475467681885</v>
+        <v>4.8614754676818848</v>
       </c>
       <c r="C28">
-        <v>0.05983829498291016</v>
+        <v>5.9838294982910163E-2</v>
       </c>
       <c r="D28">
-        <v>0.08788571431531957</v>
+        <v>8.7885714315319566E-2</v>
       </c>
       <c r="E28">
-        <v>-0.07356444396631484</v>
+        <v>-7.3564443966314841E-2</v>
       </c>
       <c r="F28">
-        <v>0.01218764686388735</v>
+        <v>1.218764686388735E-2</v>
       </c>
       <c r="G28">
-        <v>-0.00812286683235001</v>
+        <v>-8.1228668323500095E-3</v>
       </c>
       <c r="H28">
-        <v>-0.1697618346147554</v>
+        <v>-0.16976183461475541</v>
       </c>
       <c r="I28">
         <v>0.1660511106245611</v>
@@ -1585,7 +1646,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1593,22 +1654,22 @@
         <v>2.061140775680542</v>
       </c>
       <c r="C29">
-        <v>0.06582832336425781</v>
+        <v>6.5828323364257813E-2</v>
       </c>
       <c r="D29">
-        <v>0.08339026840514829</v>
+        <v>8.3390268405148293E-2</v>
       </c>
       <c r="E29">
-        <v>-0.07458987513928096</v>
+        <v>-7.4589875139280962E-2</v>
       </c>
       <c r="F29">
-        <v>0.01141545802879409</v>
+        <v>1.141545802879409E-2</v>
       </c>
       <c r="G29">
-        <v>-0.008362958157257773</v>
+        <v>-8.362958157257773E-3</v>
       </c>
       <c r="H29">
-        <v>-0.1480695359113247</v>
+        <v>-0.14806953591132471</v>
       </c>
       <c r="I29">
         <v>0.1694655262064583</v>
@@ -1626,33 +1687,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>5.052309274673462</v>
+        <v>5.0523092746734619</v>
       </c>
       <c r="C30">
-        <v>0.08176541328430176</v>
+        <v>8.1765413284301758E-2</v>
       </c>
       <c r="D30">
-        <v>0.07801122565362706</v>
+        <v>7.8011225653627059E-2</v>
       </c>
       <c r="E30">
-        <v>-0.07422718273831921</v>
+        <v>-7.4227182738319214E-2</v>
       </c>
       <c r="F30">
-        <v>0.00974415793672242</v>
+        <v>9.7441579367224199E-3</v>
       </c>
       <c r="G30">
-        <v>-0.008344691220437735</v>
+        <v>-8.3446912204377353E-3</v>
       </c>
       <c r="H30">
-        <v>-0.07976878340573257</v>
+        <v>-7.9768783405732568E-2</v>
       </c>
       <c r="I30">
-        <v>0.1835301699741916</v>
+        <v>0.18353016997419161</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1667,7 +1728,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1675,25 +1736,25 @@
         <v>1.065799236297607</v>
       </c>
       <c r="C31">
-        <v>0.05981016159057617</v>
+        <v>5.9810161590576172E-2</v>
       </c>
       <c r="D31">
-        <v>0.07806882828876449</v>
+        <v>7.8068828288764491E-2</v>
       </c>
       <c r="E31">
-        <v>-0.0750897016318537</v>
+        <v>-7.5089701631853703E-2</v>
       </c>
       <c r="F31">
-        <v>0.01052646368436116</v>
+        <v>1.052646368436116E-2</v>
       </c>
       <c r="G31">
-        <v>-0.008399528199359612</v>
+        <v>-8.399528199359612E-3</v>
       </c>
       <c r="H31">
-        <v>-0.1940200350796064</v>
+        <v>-0.19402003507960641</v>
       </c>
       <c r="I31">
-        <v>0.1809622702252685</v>
+        <v>0.18096227022526851</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1708,7 +1769,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1716,25 +1777,25 @@
         <v>8.898669958114624</v>
       </c>
       <c r="C32">
-        <v>0.04542851448059082</v>
+        <v>4.542851448059082E-2</v>
       </c>
       <c r="D32">
-        <v>0.07804681045544835</v>
+        <v>7.8046810455448354E-2</v>
       </c>
       <c r="E32">
-        <v>-0.02710281678375801</v>
+        <v>-2.7102816783758012E-2</v>
       </c>
       <c r="F32">
-        <v>0.009324145282281617</v>
+        <v>9.3241452822816172E-3</v>
       </c>
       <c r="G32">
-        <v>-0.001217216335219275</v>
+        <v>-1.217216335219275E-3</v>
       </c>
       <c r="H32">
-        <v>0.1168217071829108</v>
+        <v>0.11682170718291079</v>
       </c>
       <c r="I32">
-        <v>0.8766739608574513</v>
+        <v>0.87667396085745131</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -1749,7 +1810,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1757,25 +1818,25 @@
         <v>10.01327419281006</v>
       </c>
       <c r="C33">
-        <v>0.06682133674621582</v>
+        <v>6.682133674621582E-2</v>
       </c>
       <c r="D33">
-        <v>0.08142291714273998</v>
+        <v>8.1422917142739984E-2</v>
       </c>
       <c r="E33">
-        <v>-0.02702244590210073</v>
+        <v>-2.702244590210073E-2</v>
       </c>
       <c r="F33">
-        <v>0.00975716388607979</v>
+        <v>9.7571638860797904E-3</v>
       </c>
       <c r="G33">
-        <v>-0.001206463154950605</v>
+        <v>-1.2064631549506049E-3</v>
       </c>
       <c r="H33">
-        <v>0.06351422423991304</v>
+        <v>6.3514224239913042E-2</v>
       </c>
       <c r="I33">
-        <v>0.8761362670459582</v>
+        <v>0.87613626704595815</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
@@ -1790,33 +1851,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34">
-        <v>5.212497234344482</v>
+        <v>5.2124972343444824</v>
       </c>
       <c r="C34">
-        <v>0.0378715991973877</v>
+        <v>3.7871599197387702E-2</v>
       </c>
       <c r="D34">
-        <v>0.0747916410319511</v>
+        <v>7.47916410319511E-2</v>
       </c>
       <c r="E34">
-        <v>-0.02714946422343185</v>
+        <v>-2.7149464223431851E-2</v>
       </c>
       <c r="F34">
-        <v>0.009014863882998625</v>
+        <v>9.0148638829986253E-3</v>
       </c>
       <c r="G34">
-        <v>-0.001224313642037613</v>
+        <v>-1.2243136420376131E-3</v>
       </c>
       <c r="H34">
-        <v>0.09336177590490236</v>
+        <v>9.3361775904902355E-2</v>
       </c>
       <c r="I34">
-        <v>0.8784120801124055</v>
+        <v>0.87841208011240546</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
@@ -1831,7 +1892,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1839,25 +1900,25 @@
         <v>7.146343469619751</v>
       </c>
       <c r="C35">
-        <v>0.03205728530883789</v>
+        <v>3.2057285308837891E-2</v>
       </c>
       <c r="D35">
-        <v>0.07356934670419889</v>
+        <v>7.3569346704198887E-2</v>
       </c>
       <c r="E35">
-        <v>-0.02703627067885104</v>
+        <v>-2.7036270678851039E-2</v>
       </c>
       <c r="F35">
-        <v>0.008673779534010403</v>
+        <v>8.6737795340104031E-3</v>
       </c>
       <c r="G35">
-        <v>-0.001192117474541945</v>
+        <v>-1.1921174745419449E-3</v>
       </c>
       <c r="H35">
-        <v>0.03884189523736015</v>
+        <v>3.8841895237360147E-2</v>
       </c>
       <c r="I35">
-        <v>0.8833596203744254</v>
+        <v>0.88335962037442539</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
@@ -1872,33 +1933,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>5.91947865486145</v>
+        <v>5.9194786548614502</v>
       </c>
       <c r="C36">
-        <v>0.02994847297668457</v>
+        <v>2.994847297668457E-2</v>
       </c>
       <c r="D36">
-        <v>0.07323486980999293</v>
+        <v>7.3234869809992928E-2</v>
       </c>
       <c r="E36">
-        <v>-0.02711745133116796</v>
+        <v>-2.7117451331167958E-2</v>
       </c>
       <c r="F36">
-        <v>0.009136519230493032</v>
+        <v>9.1365192304930318E-3</v>
       </c>
       <c r="G36">
-        <v>-0.001184841883761737</v>
+        <v>-1.184841883761737E-3</v>
       </c>
       <c r="H36">
-        <v>-0.0363582053017697</v>
+        <v>-3.6358205301769697E-2</v>
       </c>
       <c r="I36">
-        <v>0.8844661052876499</v>
+        <v>0.88446610528764991</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -1913,33 +1974,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>0.5575165748596191</v>
+        <v>0.55751657485961914</v>
       </c>
       <c r="C37">
-        <v>0.006959438323974609</v>
+        <v>6.9594383239746094E-3</v>
       </c>
       <c r="D37">
-        <v>0.08179165433681895</v>
+        <v>8.1791654336818953E-2</v>
       </c>
       <c r="E37">
-        <v>-0.02627043793074346</v>
+        <v>-2.6270437930743459E-2</v>
       </c>
       <c r="F37">
-        <v>0.01035224338260921</v>
+        <v>1.035224338260921E-2</v>
       </c>
       <c r="G37">
-        <v>-0.001270262029570795</v>
+        <v>-1.2702620295707949E-3</v>
       </c>
       <c r="H37">
-        <v>0.01944077867879979</v>
+        <v>1.944077867879979E-2</v>
       </c>
       <c r="I37">
-        <v>0.8712994722076908</v>
+        <v>0.87129947220769077</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -1954,33 +2015,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.6682348251342773</v>
+        <v>0.66823482513427734</v>
       </c>
       <c r="C38">
-        <v>0.007957220077514648</v>
+        <v>7.9572200775146484E-3</v>
       </c>
       <c r="D38">
-        <v>0.08307480312826618</v>
+        <v>8.3074803128266178E-2</v>
       </c>
       <c r="E38">
-        <v>-0.02778270443273768</v>
+        <v>-2.7782704432737681E-2</v>
       </c>
       <c r="F38">
-        <v>0.01046547690460226</v>
+        <v>1.0465476904602261E-2</v>
       </c>
       <c r="G38">
-        <v>-0.001396151747667234</v>
+        <v>-1.3961517476672341E-3</v>
       </c>
       <c r="H38">
-        <v>-0.004469164619459232</v>
+        <v>-4.4691646194592316E-3</v>
       </c>
       <c r="I38">
-        <v>0.8566615428521286</v>
+        <v>0.85666154285212859</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -1995,30 +2056,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>0.6303145885467529</v>
+        <v>0.63031458854675293</v>
       </c>
       <c r="C39">
-        <v>0.006981134414672852</v>
+        <v>6.9811344146728524E-3</v>
       </c>
       <c r="D39">
-        <v>0.08103244109023745</v>
+        <v>8.1032441090237453E-2</v>
       </c>
       <c r="E39">
-        <v>-0.02758167469885242</v>
+        <v>-2.7581674698852421E-2</v>
       </c>
       <c r="F39">
-        <v>0.01041625367904648</v>
+        <v>1.0416253679046481E-2</v>
       </c>
       <c r="G39">
-        <v>-0.001408463251991553</v>
+        <v>-1.408463251991553E-3</v>
       </c>
       <c r="H39">
-        <v>-0.04757807326464381</v>
+        <v>-4.7578073264643812E-2</v>
       </c>
       <c r="I39">
         <v>0.8601239819865466</v>
@@ -2036,33 +2097,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.6669995784759521</v>
+        <v>0.66699957847595215</v>
       </c>
       <c r="C40">
-        <v>0.007000446319580078</v>
+        <v>7.0004463195800781E-3</v>
       </c>
       <c r="D40">
-        <v>0.07802716550128214</v>
+        <v>7.8027165501282136E-2</v>
       </c>
       <c r="E40">
-        <v>-0.02818245674859036</v>
+        <v>-2.8182456748590361E-2</v>
       </c>
       <c r="F40">
-        <v>0.009866227856088903</v>
+        <v>9.8662278560889029E-3</v>
       </c>
       <c r="G40">
-        <v>-0.001415788597460873</v>
+        <v>-1.4157885974608729E-3</v>
       </c>
       <c r="H40">
-        <v>-0.09329558471383192</v>
+        <v>-9.3295584713831925E-2</v>
       </c>
       <c r="I40">
-        <v>0.8614749611477273</v>
+        <v>0.86147496114772726</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2077,7 +2138,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2085,25 +2146,25 @@
         <v>0.6199648380279541</v>
       </c>
       <c r="C41">
-        <v>0.00698089599609375</v>
+        <v>6.98089599609375E-3</v>
       </c>
       <c r="D41">
-        <v>0.07859161711762608</v>
+        <v>7.8591617117626078E-2</v>
       </c>
       <c r="E41">
-        <v>-0.02894039404740846</v>
+        <v>-2.894039404740846E-2</v>
       </c>
       <c r="F41">
-        <v>0.01056985716885506</v>
+        <v>1.056985716885506E-2</v>
       </c>
       <c r="G41">
-        <v>-0.001522578091036936</v>
+        <v>-1.5225780910369359E-3</v>
       </c>
       <c r="H41">
-        <v>-0.1989421714618951</v>
+        <v>-0.19894217146189511</v>
       </c>
       <c r="I41">
-        <v>0.8515334583693983</v>
+        <v>0.85153345836939831</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -2118,33 +2179,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42">
-        <v>1.051856279373169</v>
+        <v>1.0518562793731689</v>
       </c>
       <c r="C42">
-        <v>0.04890108108520508</v>
+        <v>4.8901081085205078E-2</v>
       </c>
       <c r="D42">
-        <v>0.08863440931761193</v>
+        <v>8.8634409317611934E-2</v>
       </c>
       <c r="E42">
-        <v>-0.07152919718065569</v>
+        <v>-7.1529197180655688E-2</v>
       </c>
       <c r="F42">
-        <v>0.01220798236452699</v>
+        <v>1.2207982364526989E-2</v>
       </c>
       <c r="G42">
-        <v>-0.00771653450120103</v>
+        <v>-7.7165345012010301E-3</v>
       </c>
       <c r="H42">
         <v>-0.156333872653448</v>
       </c>
       <c r="I42">
-        <v>0.2181754315936691</v>
+        <v>0.21817543159366909</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -2159,30 +2220,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>0.9135251045227051</v>
+        <v>0.91352510452270508</v>
       </c>
       <c r="C43">
-        <v>0.05086421966552734</v>
+        <v>5.0864219665527337E-2</v>
       </c>
       <c r="D43">
-        <v>0.08630325605475934</v>
+        <v>8.6303256054759345E-2</v>
       </c>
       <c r="E43">
-        <v>-0.07169317705885372</v>
+        <v>-7.1693177058853724E-2</v>
       </c>
       <c r="F43">
-        <v>0.01080545578468554</v>
+        <v>1.0805455784685541E-2</v>
       </c>
       <c r="G43">
-        <v>-0.007687458664294251</v>
+        <v>-7.687458664294251E-3</v>
       </c>
       <c r="H43">
-        <v>-0.03710010010175235</v>
+        <v>-3.7100100101752347E-2</v>
       </c>
       <c r="I43">
         <v>0.2107530816982448</v>
@@ -2200,33 +2261,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>0.9058609008789062</v>
+        <v>0.90586090087890625</v>
       </c>
       <c r="C44">
-        <v>0.04802942276000977</v>
+        <v>4.8029422760009773E-2</v>
       </c>
       <c r="D44">
-        <v>0.08102290933830258</v>
+        <v>8.1022909338302584E-2</v>
       </c>
       <c r="E44">
-        <v>-0.07211422236880609</v>
+        <v>-7.2114222368806088E-2</v>
       </c>
       <c r="F44">
-        <v>0.01037284961291291</v>
+        <v>1.037284961291291E-2</v>
       </c>
       <c r="G44">
-        <v>-0.00783173473181006</v>
+        <v>-7.8317347318100604E-3</v>
       </c>
       <c r="H44">
-        <v>-0.04321286199261798</v>
+        <v>-4.3212861992617979E-2</v>
       </c>
       <c r="I44">
-        <v>0.2222219025776739</v>
+        <v>0.22222190257767391</v>
       </c>
       <c r="J44" t="s">
         <v>15</v>
@@ -2241,7 +2302,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2249,25 +2310,25 @@
         <v>0.9079432487487793</v>
       </c>
       <c r="C45">
-        <v>0.04899907112121582</v>
+        <v>4.899907112121582E-2</v>
       </c>
       <c r="D45">
-        <v>0.07761252778226412</v>
+        <v>7.7612527782264115E-2</v>
       </c>
       <c r="E45">
-        <v>-0.0723482326677329</v>
+        <v>-7.2348232667732895E-2</v>
       </c>
       <c r="F45">
-        <v>0.009578142251183707</v>
+        <v>9.5781422511837071E-3</v>
       </c>
       <c r="G45">
-        <v>-0.007914507261231633</v>
+        <v>-7.914507261231633E-3</v>
       </c>
       <c r="H45">
-        <v>-0.06137226767143389</v>
+        <v>-6.1372267671433889E-2</v>
       </c>
       <c r="I45">
-        <v>0.2256206697631594</v>
+        <v>0.22562066976315939</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -2282,7 +2343,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2290,25 +2351,25 @@
         <v>1.087133407592773</v>
       </c>
       <c r="C46">
-        <v>0.04990196228027344</v>
+        <v>4.9901962280273438E-2</v>
       </c>
       <c r="D46">
-        <v>0.0771823322700344</v>
+        <v>7.7182332270034404E-2</v>
       </c>
       <c r="E46">
-        <v>-0.07231134524497815</v>
+        <v>-7.2311345244978148E-2</v>
       </c>
       <c r="F46">
-        <v>0.01024985069341092</v>
+        <v>1.024985069341092E-2</v>
       </c>
       <c r="G46">
-        <v>-0.007820648343860676</v>
+        <v>-7.8206483438606755E-3</v>
       </c>
       <c r="H46">
-        <v>-0.1626437378670322</v>
+        <v>-0.16264373786703221</v>
       </c>
       <c r="I46">
-        <v>0.2374088266754655</v>
+        <v>0.23740882667546551</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -2323,30 +2384,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>4.210939645767212</v>
+        <v>4.2109396457672119</v>
       </c>
       <c r="C47">
-        <v>0.02892136573791504</v>
+        <v>2.8921365737915039E-2</v>
       </c>
       <c r="D47">
-        <v>0.08194026964791086</v>
+        <v>8.194026964791086E-2</v>
       </c>
       <c r="E47">
-        <v>-0.02688628230266699</v>
+        <v>-2.688628230266699E-2</v>
       </c>
       <c r="F47">
-        <v>0.01005286843947093</v>
+        <v>1.005286843947093E-2</v>
       </c>
       <c r="G47">
-        <v>-0.001189200984581867</v>
+        <v>-1.1892009845818671E-3</v>
       </c>
       <c r="H47">
-        <v>0.04779742083617899</v>
+        <v>4.7797420836178987E-2</v>
       </c>
       <c r="I47">
         <v>0.8795124227884431</v>
@@ -2364,33 +2425,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48">
-        <v>4.383001089096069</v>
+        <v>4.3830010890960693</v>
       </c>
       <c r="C48">
-        <v>0.0279686450958252</v>
+        <v>2.7968645095825199E-2</v>
       </c>
       <c r="D48">
-        <v>0.08043154212589435</v>
+        <v>8.0431542125894345E-2</v>
       </c>
       <c r="E48">
-        <v>-0.02685546342621507</v>
+        <v>-2.685546342621507E-2</v>
       </c>
       <c r="F48">
-        <v>0.009492210825162222</v>
+        <v>9.4922108251622225E-3</v>
       </c>
       <c r="G48">
-        <v>-0.001188732209992218</v>
+        <v>-1.1887322099922179E-3</v>
       </c>
       <c r="H48">
-        <v>0.08894423399381191</v>
+        <v>8.8944233993811905E-2</v>
       </c>
       <c r="I48">
-        <v>0.8779566467420445</v>
+        <v>0.87795664674204454</v>
       </c>
       <c r="J48" t="s">
         <v>13</v>
@@ -2405,33 +2466,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>4.363447666168213</v>
+        <v>4.3634476661682129</v>
       </c>
       <c r="C49">
-        <v>0.02892279624938965</v>
+        <v>2.8922796249389648E-2</v>
       </c>
       <c r="D49">
-        <v>0.07686424440577264</v>
+        <v>7.6864244405772636E-2</v>
       </c>
       <c r="E49">
-        <v>-0.02706978870824517</v>
+        <v>-2.7069788708245172E-2</v>
       </c>
       <c r="F49">
-        <v>0.009433399699594013</v>
+        <v>9.4333996995940132E-3</v>
       </c>
       <c r="G49">
-        <v>-0.001208037276583566</v>
+        <v>-1.2080372765835661E-3</v>
       </c>
       <c r="H49">
-        <v>0.05126900840412318</v>
+        <v>5.1269008404123177E-2</v>
       </c>
       <c r="I49">
-        <v>0.880028503674912</v>
+        <v>0.88002850367491203</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
@@ -2446,33 +2507,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50">
-        <v>4.293488740921021</v>
+        <v>4.2934887409210214</v>
       </c>
       <c r="C50">
-        <v>0.02689671516418457</v>
+        <v>2.689671516418457E-2</v>
       </c>
       <c r="D50">
-        <v>0.07492382125263895</v>
+        <v>7.4923821252638953E-2</v>
       </c>
       <c r="E50">
-        <v>-0.02676765989617915</v>
+        <v>-2.6767659896179151E-2</v>
       </c>
       <c r="F50">
-        <v>0.008989612769104817</v>
+        <v>8.9896127691048173E-3</v>
       </c>
       <c r="G50">
-        <v>-0.001168091611982703</v>
+        <v>-1.168091611982703E-3</v>
       </c>
       <c r="H50">
-        <v>0.003843810207172171</v>
+        <v>3.8438102071721709E-3</v>
       </c>
       <c r="I50">
-        <v>0.8857103834406396</v>
+        <v>0.88571038344063957</v>
       </c>
       <c r="J50" t="s">
         <v>13</v>
@@ -2487,33 +2548,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51">
-        <v>3.954720973968506</v>
+        <v>3.9547209739685059</v>
       </c>
       <c r="C51">
-        <v>0.0269324779510498</v>
+        <v>2.6932477951049801E-2</v>
       </c>
       <c r="D51">
-        <v>0.0729839901477832</v>
+        <v>7.2983990147783201E-2</v>
       </c>
       <c r="E51">
-        <v>-0.02704176135239808</v>
+        <v>-2.704176135239808E-2</v>
       </c>
       <c r="F51">
-        <v>0.009068438402102561</v>
+        <v>9.0684384021025612E-3</v>
       </c>
       <c r="G51">
-        <v>-0.001182973271152104</v>
+        <v>-1.1829732711521039E-3</v>
       </c>
       <c r="H51">
-        <v>-0.02863577585722532</v>
+        <v>-2.8635775857225321E-2</v>
       </c>
       <c r="I51">
-        <v>0.8846483136442738</v>
+        <v>0.88464831364427376</v>
       </c>
       <c r="J51" t="s">
         <v>13</v>
@@ -2528,33 +2589,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>0.50162672996521</v>
+        <v>0.50162672996520996</v>
       </c>
       <c r="C52">
-        <v>0.006980657577514648</v>
+        <v>6.9806575775146476E-3</v>
       </c>
       <c r="D52">
-        <v>0.09099420864932546</v>
+        <v>9.0994208649325461E-2</v>
       </c>
       <c r="E52">
-        <v>-0.027123440016422</v>
+        <v>-2.7123440016422001E-2</v>
       </c>
       <c r="F52">
-        <v>0.01276014529096323</v>
+        <v>1.276014529096323E-2</v>
       </c>
       <c r="G52">
-        <v>-0.001309760520246037</v>
+        <v>-1.3097605202460371E-3</v>
       </c>
       <c r="H52">
-        <v>-0.2086344638565394</v>
+        <v>-0.20863446385653939</v>
       </c>
       <c r="I52">
-        <v>0.8672975604142469</v>
+        <v>0.86729756041424688</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -2569,33 +2630,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
-        <v>0.5754623413085938</v>
+        <v>0.57546234130859375</v>
       </c>
       <c r="C53">
-        <v>0.005986928939819336</v>
+        <v>5.9869289398193359E-3</v>
       </c>
       <c r="D53">
-        <v>0.0817994277311177</v>
+        <v>8.1799427731117702E-2</v>
       </c>
       <c r="E53">
-        <v>-0.02786528440965625</v>
+        <v>-2.786528440965625E-2</v>
       </c>
       <c r="F53">
-        <v>0.01015122583943794</v>
+        <v>1.0151225839437941E-2</v>
       </c>
       <c r="G53">
-        <v>-0.001362222366838124</v>
+        <v>-1.3622223668381241E-3</v>
       </c>
       <c r="H53">
-        <v>0.02569243315422332</v>
+        <v>2.5692433154223319E-2</v>
       </c>
       <c r="I53">
-        <v>0.8601449644129677</v>
+        <v>0.86014496441296773</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -2610,33 +2671,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>0.5934362411499023</v>
+        <v>0.59343624114990234</v>
       </c>
       <c r="C54">
-        <v>0.005982637405395508</v>
+        <v>5.9826374053955078E-3</v>
       </c>
       <c r="D54">
-        <v>0.08177044770954367</v>
+        <v>8.177044770954367E-2</v>
       </c>
       <c r="E54">
-        <v>-0.02794910800452388</v>
+        <v>-2.7949108004523882E-2</v>
       </c>
       <c r="F54">
-        <v>0.01075609186077808</v>
+        <v>1.075609186077808E-2</v>
       </c>
       <c r="G54">
-        <v>-0.001385514158912623</v>
+        <v>-1.3855141589126231E-3</v>
       </c>
       <c r="H54">
-        <v>-0.08175610296800073</v>
+        <v>-8.1756102968000732E-2</v>
       </c>
       <c r="I54">
-        <v>0.8624030813896456</v>
+        <v>0.86240308138964561</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -2651,33 +2712,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55">
-        <v>0.5874996185302734</v>
+        <v>0.58749961853027344</v>
       </c>
       <c r="C55">
-        <v>0.006003856658935547</v>
+        <v>6.0038566589355469E-3</v>
       </c>
       <c r="D55">
-        <v>0.08086432132877824</v>
+        <v>8.0864321328778244E-2</v>
       </c>
       <c r="E55">
-        <v>-0.02694959850471187</v>
+        <v>-2.6949598504711871E-2</v>
       </c>
       <c r="F55">
-        <v>0.01061771361569795</v>
+        <v>1.061771361569795E-2</v>
       </c>
       <c r="G55">
-        <v>-0.001340810636215927</v>
+        <v>-1.340810636215927E-3</v>
       </c>
       <c r="H55">
-        <v>-0.1765691594720764</v>
+        <v>-0.17656915947207641</v>
       </c>
       <c r="I55">
-        <v>0.8688110316692356</v>
+        <v>0.86881103166923557</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -2692,33 +2753,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>0.5820419788360596</v>
+        <v>0.58204197883605957</v>
       </c>
       <c r="C56">
-        <v>0.006494998931884766</v>
+        <v>6.4949989318847656E-3</v>
       </c>
       <c r="D56">
-        <v>0.0803467099407372</v>
+        <v>8.0346709940737199E-2</v>
       </c>
       <c r="E56">
-        <v>-0.02731246866333515</v>
+        <v>-2.731246866333515E-2</v>
       </c>
       <c r="F56">
-        <v>0.01105686003194661</v>
+        <v>1.105686003194661E-2</v>
       </c>
       <c r="G56">
-        <v>-0.001345778722060372</v>
+        <v>-1.3457787220603719E-3</v>
       </c>
       <c r="H56">
-        <v>-0.2541830570155446</v>
+        <v>-0.25418305701554461</v>
       </c>
       <c r="I56">
-        <v>0.868773159261552</v>
+        <v>0.86877315926155196</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -2733,7 +2794,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2741,22 +2802,22 @@
         <v>1.193367719650269</v>
       </c>
       <c r="C57">
-        <v>0.04286551475524902</v>
+        <v>4.2865514755249023E-2</v>
       </c>
       <c r="D57">
-        <v>0.09324220821748111</v>
+        <v>9.324220821748111E-2</v>
       </c>
       <c r="E57">
-        <v>-0.07082980958785207</v>
+        <v>-7.0829809587852066E-2</v>
       </c>
       <c r="F57">
-        <v>0.01358743038663586</v>
+        <v>1.358743038663586E-2</v>
       </c>
       <c r="G57">
-        <v>-0.007544663599532313</v>
+        <v>-7.5446635995323127E-3</v>
       </c>
       <c r="H57">
-        <v>-0.2869944868237475</v>
+        <v>-0.28699448682374751</v>
       </c>
       <c r="I57">
         <v>0.2355890637750373</v>
@@ -2774,7 +2835,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2782,25 +2843,25 @@
         <v>1.775277853012085</v>
       </c>
       <c r="C58">
-        <v>0.05687475204467773</v>
+        <v>5.6874752044677727E-2</v>
       </c>
       <c r="D58">
-        <v>0.08969945198255797</v>
+        <v>8.9699451982557965E-2</v>
       </c>
       <c r="E58">
-        <v>-0.07113283159983362</v>
+        <v>-7.1132831599833621E-2</v>
       </c>
       <c r="F58">
-        <v>0.01163374950901253</v>
+        <v>1.1633749509012531E-2</v>
       </c>
       <c r="G58">
-        <v>-0.007584143565057023</v>
+        <v>-7.5841435650570227E-3</v>
       </c>
       <c r="H58">
         <v>-0.116599153314358</v>
       </c>
       <c r="I58">
-        <v>0.2213601141712458</v>
+        <v>0.22136011417124579</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
@@ -2815,7 +2876,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2823,25 +2884,25 @@
         <v>1.171893835067749</v>
       </c>
       <c r="C59">
-        <v>0.04488658905029297</v>
+        <v>4.4886589050292969E-2</v>
       </c>
       <c r="D59">
-        <v>0.08441946584083615</v>
+        <v>8.441946584083615E-2</v>
       </c>
       <c r="E59">
-        <v>-0.07169938966129746</v>
+        <v>-7.1699389661297463E-2</v>
       </c>
       <c r="F59">
-        <v>0.01181808476585497</v>
+        <v>1.1818084765854969E-2</v>
       </c>
       <c r="G59">
-        <v>-0.007719558207101053</v>
+        <v>-7.7195582071010529E-3</v>
       </c>
       <c r="H59">
-        <v>-0.1885623037001447</v>
+        <v>-0.18856230370014471</v>
       </c>
       <c r="I59">
-        <v>0.2333622752985788</v>
+        <v>0.23336227529857881</v>
       </c>
       <c r="J59" t="s">
         <v>15</v>
@@ -2856,30 +2917,30 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60">
-        <v>1.210511684417725</v>
+        <v>1.2105116844177251</v>
       </c>
       <c r="C60">
-        <v>0.04286050796508789</v>
+        <v>4.2860507965087891E-2</v>
       </c>
       <c r="D60">
-        <v>0.08270250316727641</v>
+        <v>8.2702503167276412E-2</v>
       </c>
       <c r="E60">
-        <v>-0.07130428455580866</v>
+        <v>-7.1304284555808659E-2</v>
       </c>
       <c r="F60">
-        <v>0.01105225136517396</v>
+        <v>1.105225136517396E-2</v>
       </c>
       <c r="G60">
-        <v>-0.007697705288102006</v>
+        <v>-7.6977052881020058E-3</v>
       </c>
       <c r="H60">
-        <v>-0.2247211188453246</v>
+        <v>-0.22472111884532461</v>
       </c>
       <c r="I60">
         <v>0.2468332305966712</v>
@@ -2897,33 +2958,33 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <v>1.16559624671936</v>
+        <v>1.1655962467193599</v>
       </c>
       <c r="C61">
-        <v>0.04191899299621582</v>
+        <v>4.191899299621582E-2</v>
       </c>
       <c r="D61">
-        <v>0.07749744868516956</v>
+        <v>7.7497448685169557E-2</v>
       </c>
       <c r="E61">
-        <v>-0.07113651981243081</v>
+        <v>-7.1136519812430812E-2</v>
       </c>
       <c r="F61">
-        <v>0.01029014182894589</v>
+        <v>1.029014182894589E-2</v>
       </c>
       <c r="G61">
-        <v>-0.007596042491186998</v>
+        <v>-7.5960424911869981E-3</v>
       </c>
       <c r="H61">
-        <v>-0.167213973846313</v>
+        <v>-0.16721397384631301</v>
       </c>
       <c r="I61">
-        <v>0.2593101362849732</v>
+        <v>0.25931013628497318</v>
       </c>
       <c r="J61" t="s">
         <v>15</v>
